--- a/class_DRUGTOX/results_template.xlsx
+++ b/class_DRUGTOX/results_template.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -406,6 +406,7 @@
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
@@ -418,28 +419,52 @@
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="53.42578125" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:S3111">
+    <sortCondition ref="R1"/>
+  </sortState>
   <conditionalFormatting sqref="I1 G1:G1048576 K1:K1048576 I3:I1048576 M1:M1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>G1&lt;&gt;F1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>I2&lt;&gt;H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$C1=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -449,11 +474,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +497,11 @@
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="67" customWidth="1"/>
     <col min="17" max="17" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -494,25 +520,26 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1 G1:G1048576 K1:K1048576 I3:I1048576 M1:M1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>G1&lt;&gt;F1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>I2&lt;&gt;H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$C1=""</formula>
     </cfRule>
   </conditionalFormatting>
